--- a/Stocks/DIVISLAB.xlsx
+++ b/Stocks/DIVISLAB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>629.51666666666665</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>670.06674147006152</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>671.79312247664291</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>32.655188227958703</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>4.7000000000000455</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>6.8999999999999773</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.68115942028986387</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>683.92728397437133</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>1.1064780947223198</v>
       </c>
       <c r="Y67">
         <v>9.8746536740234667</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>678.75</v>
+      </c>
+      <c r="D83">
+        <v>705.9</v>
+      </c>
+      <c r="E83">
+        <v>678.4</v>
+      </c>
+      <c r="F83">
+        <v>694</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>692.76666666666677</v>
+      </c>
+      <c r="H83">
+        <v>670.68715210075084</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>667.05722319064978</v>
+      </c>
+      <c r="K83">
+        <v>641.11479998973027</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>78.571875852185329</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>15.600000000000023</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>27.5</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.56727272727272815</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>655.46325288544745</v>
+      </c>
+      <c r="W83">
+        <v>660.8326112736662</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.3693583882187568</v>
+      </c>
+      <c r="Y83">
+        <v>-9.3101800429539896</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>692.75</v>
+      </c>
+      <c r="D84">
+        <v>703.65</v>
+      </c>
+      <c r="E84">
+        <v>681.2</v>
+      </c>
+      <c r="F84">
+        <v>687.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>690.7833333333333</v>
+      </c>
+      <c r="H84">
+        <v>680.73524271704207</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>675.18895137050538</v>
+      </c>
+      <c r="K84">
+        <v>650.02262221423462</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>71.557630723127659</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>6.2999999999999545</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>22.449999999999932</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.28062360801781622</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>660.39198321076321</v>
+      </c>
+      <c r="W84">
+        <v>662.80797340154277</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.4159901907795529</v>
+      </c>
+      <c r="Y84">
+        <v>-7.9313420725191026</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>692.15</v>
+      </c>
+      <c r="D85">
+        <v>709</v>
+      </c>
+      <c r="E85">
+        <v>692.15</v>
+      </c>
+      <c r="F85">
+        <v>701.85</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>701</v>
+      </c>
+      <c r="H85">
+        <v>690.86762135852109</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>682.70251773261532</v>
+      </c>
+      <c r="K85">
+        <v>659.38426172218249</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>77.17957049789041</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>9.7000000000000455</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>16.850000000000023</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.57566765578635204</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>666.77013963987656</v>
+      </c>
+      <c r="W85">
+        <v>665.69997537179881</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>1.0701642680777468</v>
+      </c>
+      <c r="Y85">
+        <v>-6.1310408043997331</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>705</v>
+      </c>
+      <c r="D86">
+        <v>709.9</v>
+      </c>
+      <c r="E86">
+        <v>692.45</v>
+      </c>
+      <c r="F86">
+        <v>700.3</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>700.88333333333321</v>
+      </c>
+      <c r="H86">
+        <v>695.87547734592715</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>688.74640268092298</v>
+      </c>
+      <c r="K86">
+        <v>666.73220356169747</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>75.173370385087352</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.8499999999999091</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>17.449999999999932</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.44985673352435185</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>671.92857969528018</v>
+      </c>
+      <c r="W86">
+        <v>668.26294015907297</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>3.6656395362072089</v>
+      </c>
+      <c r="Y86">
+        <v>-4.171704736278345</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>700</v>
+      </c>
+      <c r="D87">
+        <v>718</v>
+      </c>
+      <c r="E87">
+        <v>699.1</v>
+      </c>
+      <c r="F87">
+        <v>710.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>709.19999999999993</v>
+      </c>
+      <c r="H87">
+        <v>702.53773867296354</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>695.24720208516237</v>
+      </c>
+      <c r="K87">
+        <v>673.92504721465355</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>79.546712917583207</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>11.399999999999977</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>18.899999999999977</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.6031746031746027</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>677.86264435754481</v>
+      </c>
+      <c r="W87">
+        <v>671.39161125840087</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>6.4710330991439378</v>
+      </c>
+      <c r="Y87">
+        <v>-2.0431571691938886</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>710.5</v>
+      </c>
+      <c r="D88">
+        <v>722.4</v>
+      </c>
+      <c r="E88">
+        <v>695.35</v>
+      </c>
+      <c r="F88">
+        <v>706.6</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>708.11666666666667</v>
+      </c>
+      <c r="H88">
+        <v>705.32720266981505</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>701.28115717734852</v>
+      </c>
+      <c r="K88">
+        <v>678.68614783361943</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>73.369589661381923</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>11.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>27.049999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.41589648798521328</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>682.28377599484566</v>
+      </c>
+      <c r="W88">
+        <v>673.99964005407492</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>8.2841359407707387</v>
+      </c>
+      <c r="Y88">
+        <v>2.2301452799037058E-2</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>712.85</v>
+      </c>
+      <c r="D89">
+        <v>728.9</v>
+      </c>
+      <c r="E89">
+        <v>705.6</v>
+      </c>
+      <c r="F89">
+        <v>723.6</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>719.36666666666667</v>
+      </c>
+      <c r="H89">
+        <v>712.34693466824092</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>707.41867780460439</v>
+      </c>
+      <c r="K89">
+        <v>684.66700387059291</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>81.287238534254783</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>18</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>23.299999999999955</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.77253218884120323</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>688.64011814948481</v>
+      </c>
+      <c r="W89">
+        <v>677.67374079081014</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>10.966377358674663</v>
+      </c>
+      <c r="Y89">
+        <v>2.2111166339741621</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>713.2</v>
+      </c>
+      <c r="D90">
+        <v>718.25</v>
+      </c>
+      <c r="E90">
+        <v>696.4</v>
+      </c>
+      <c r="F90">
+        <v>697.6</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>704.08333333333337</v>
+      </c>
+      <c r="H90">
+        <v>708.2151340007872</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>709.8256382924701</v>
+      </c>
+      <c r="K90">
+        <v>687.27433634379452</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>51.828183706915112</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000455</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>21.850000000000023</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>5.4919908466821245E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>690.01856151110258</v>
+      </c>
+      <c r="W90">
+        <v>679.1497599914909</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>10.868801519611679</v>
+      </c>
+      <c r="Y90">
+        <v>3.9426536111016657</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>702.85</v>
+      </c>
+      <c r="D91">
+        <v>711</v>
+      </c>
+      <c r="E91">
+        <v>692.55</v>
+      </c>
+      <c r="F91">
+        <v>696.75</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>700.1</v>
+      </c>
+      <c r="H91">
+        <v>704.15756700039356</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>710.08660756081008</v>
+      </c>
+      <c r="K91">
+        <v>688.44670604517353</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>51.071815396483288</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>4.2000000000000455</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>18.450000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.22764227642276613</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>691.05416743247144</v>
+      </c>
+      <c r="W91">
+        <v>680.45348147360266</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>10.60068595886878</v>
+      </c>
+      <c r="Y91">
+        <v>5.2742600806550888</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>707.45</v>
+      </c>
+      <c r="D92">
+        <v>717</v>
+      </c>
+      <c r="E92">
+        <v>703</v>
+      </c>
+      <c r="F92">
+        <v>705.25</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>708.41666666666663</v>
+      </c>
+      <c r="H92">
+        <v>706.28711683353004</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>711.62291699174114</v>
+      </c>
+      <c r="K92">
+        <v>691.6807713684683</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>58.620372213585057</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.16071428571428573</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>693.23814167362968</v>
+      </c>
+      <c r="W92">
+        <v>682.29026062370622</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>10.947881049923467</v>
+      </c>
+      <c r="Y92">
+        <v>6.4089842745087644</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>711</v>
+      </c>
+      <c r="D93">
+        <v>727.5</v>
+      </c>
+      <c r="E93">
+        <v>710.2</v>
+      </c>
+      <c r="F93">
+        <v>719.25</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>718.98333333333323</v>
+      </c>
+      <c r="H93">
+        <v>712.63522508343158</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>715.15115766024314</v>
+      </c>
+      <c r="K93">
+        <v>695.79615550880874</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>68.59545405519718</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>9.0499999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>17.299999999999955</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.52312138728323576</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>697.23996603153284</v>
+      </c>
+      <c r="W93">
+        <v>685.02801909602431</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>12.211946935508536</v>
+      </c>
+      <c r="Y93">
+        <v>7.569576806708719</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>724</v>
+      </c>
+      <c r="D94">
+        <v>811.6</v>
+      </c>
+      <c r="E94">
+        <v>720.5</v>
+      </c>
+      <c r="F94">
+        <v>805.75</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>779.2833333333333</v>
+      </c>
+      <c r="H94">
+        <v>745.95927920838244</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>736.58423373574465</v>
+      </c>
+      <c r="K94">
+        <v>701.28589872907344</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>89.02621298597731</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>85.25</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>91.100000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.93578485181119631</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>713.93381741129701</v>
+      </c>
+      <c r="W94">
+        <v>693.97038805187435</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>19.963429359422662</v>
+      </c>
+      <c r="Y94">
+        <v>10.048347317251508</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD94">
+        <f t="shared" si="35"/>
+        <v>730.90000000000009</v>
+      </c>
+      <c r="AE94">
+        <f t="shared" si="36"/>
+        <v>755.30000000000007</v>
+      </c>
+      <c r="AF94">
+        <f t="shared" si="37"/>
+        <v>766.05000000000007</v>
+      </c>
+      <c r="AG94">
+        <f t="shared" si="38"/>
+        <v>776.80000000000007</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>810</v>
+      </c>
+      <c r="D95">
+        <v>865.5</v>
+      </c>
+      <c r="E95">
+        <v>792.1</v>
+      </c>
+      <c r="F95">
+        <v>829.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>829.18333333333339</v>
+      </c>
+      <c r="H95">
+        <v>787.57130627085792</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>765.23218179446803</v>
+      </c>
+      <c r="K95">
+        <v>721.46681012261263</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>91.060127049130756</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>37.850000000000023</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>73.399999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.51566757493188053</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>731.78246088648211</v>
+      </c>
+      <c r="W95">
+        <v>704.04295189988363</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>27.73950898659848</v>
+      </c>
+      <c r="Y95">
+        <v>13.586579651120903</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>834.45</v>
+      </c>
+      <c r="D96">
+        <v>874</v>
+      </c>
+      <c r="E96">
+        <v>832</v>
+      </c>
+      <c r="F96">
+        <v>870.25</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>858.75</v>
+      </c>
+      <c r="H96">
+        <v>823.1606531354289</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>789.40280806236399</v>
+      </c>
+      <c r="K96">
+        <v>746.0297412064765</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>93.549000328965903</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>38.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>753.08515921163871</v>
+      </c>
+      <c r="W96">
+        <v>716.35458509248485</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>36.730574119153857</v>
+      </c>
+      <c r="Y96">
+        <v>18.215378544727493</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>836.80000000000007</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>848.05000000000007</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>853</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>857.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>864.8</v>
+      </c>
+      <c r="D97">
+        <v>893.05</v>
+      </c>
+      <c r="E97">
+        <v>850.05</v>
+      </c>
+      <c r="F97">
+        <v>865.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>869.4</v>
+      </c>
+      <c r="H97">
+        <v>846.28032656771438</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>812.43551738183862</v>
+      </c>
+      <c r="K97">
+        <v>769.14535427170392</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>89.565855369189777</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>15.050000000000068</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.35000000000000159</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>770.31821164061739</v>
+      </c>
+      <c r="W97">
+        <v>727.37276397452297</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>42.945447666094424</v>
+      </c>
+      <c r="Y97">
+        <v>23.161392369000879</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>876</v>
+      </c>
+      <c r="D98">
+        <v>883.8</v>
+      </c>
+      <c r="E98">
+        <v>792.5</v>
+      </c>
+      <c r="F98">
+        <v>831.55</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>835.94999999999993</v>
+      </c>
+      <c r="H98">
+        <v>841.1151632838571</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>828.29429129698553</v>
+      </c>
+      <c r="K98">
+        <v>774.33527554465866</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>66.50653152598629</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>39.049999999999955</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>91.299999999999955</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.42771084337349369</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>779.73848677283013</v>
+      </c>
+      <c r="W98">
+        <v>735.08959627270644</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>44.648890500123684</v>
+      </c>
+      <c r="Y98">
+        <v>27.458891995225439</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>841</v>
+      </c>
+      <c r="D99">
+        <v>871.8</v>
+      </c>
+      <c r="E99">
+        <v>800.2</v>
+      </c>
+      <c r="F99">
+        <v>860.6</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>844.19999999999993</v>
+      </c>
+      <c r="H99">
+        <v>842.65758164192857</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>837.96222656432212</v>
+      </c>
+      <c r="K99">
+        <v>780.08299209029008</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>73.805714790331464</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>60.399999999999977</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>71.599999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.84357541899441413</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>792.17871957701016</v>
+      </c>
+      <c r="W99">
+        <v>744.38666321546896</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>47.792056361541199</v>
+      </c>
+      <c r="Y99">
+        <v>31.525524868488592</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>808.35</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>827.55000000000007</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>836</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>844.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>874</v>
+      </c>
+      <c r="D100">
+        <v>948.9</v>
+      </c>
+      <c r="E100">
+        <v>865.6</v>
+      </c>
+      <c r="F100">
+        <v>945.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>919.9</v>
+      </c>
+      <c r="H100">
+        <v>881.27879082096433</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>862.61506510558388</v>
+      </c>
+      <c r="K100">
+        <v>799.08677162578113</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>85.393412361371389</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>79.600000000000023</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>83.299999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.95558223289315802</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V100">
+        <v>815.72045502670096</v>
+      </c>
+      <c r="W100">
+        <v>759.26172519950831</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>56.458729827192656</v>
+      </c>
+      <c r="Y100">
+        <v>36.512165860229402</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>875.1</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>897.40000000000009</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>907.25</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>917.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>954.85</v>
+      </c>
+      <c r="D101">
+        <v>999.7</v>
+      </c>
+      <c r="E101">
+        <v>950.1</v>
+      </c>
+      <c r="F101">
+        <v>990.95</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>980.25</v>
+      </c>
+      <c r="H101">
+        <v>930.76439541048217</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>893.07838397100966</v>
+      </c>
+      <c r="K101">
+        <v>832.64526682005203</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>88.755812693742271</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>40.850000000000023</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>49.600000000000023</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.82358870967741948</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>842.67884656105468</v>
+      </c>
+      <c r="W101">
+        <v>776.42381962917432</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>66.255026931880366</v>
+      </c>
+      <c r="Y101">
+        <v>42.460738074559593</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>955.75</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>969.05000000000007</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>974.90000000000009</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>980.75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>997.1</v>
+      </c>
+      <c r="D102">
+        <v>1004.35</v>
+      </c>
+      <c r="E102">
+        <v>961</v>
+      </c>
+      <c r="F102">
+        <v>966.7</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>977.35</v>
+      </c>
+      <c r="H102">
+        <v>954.05719770524115</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>917.80540975522979</v>
+      </c>
+      <c r="K102">
+        <v>861.16854086004048</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>77.010108859680386</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>43.350000000000023</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.13148788927335739</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>861.75902401320013</v>
+      </c>
+      <c r="W102">
+        <v>790.51835150849479</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>71.240672504705344</v>
+      </c>
+      <c r="Y102">
+        <v>48.216724960588742</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>969.8</v>
+      </c>
+      <c r="D103">
+        <v>972</v>
+      </c>
+      <c r="E103">
+        <v>930.45</v>
+      </c>
+      <c r="F103">
+        <v>959.5</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>953.98333333333323</v>
+      </c>
+      <c r="H103">
+        <v>954.02026551928725</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>929.8486520318454</v>
+      </c>
+      <c r="K103">
+        <v>876.56442066892043</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N103">
+        <v>73.404839632049772</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>29.049999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>41.549999999999955</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.69915764139590819</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>876.79609724193858</v>
+      </c>
+      <c r="W103">
+        <v>803.03551065601368</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>73.760586585924898</v>
+      </c>
+      <c r="Y103">
+        <v>53.32549728565597</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>942</v>
+      </c>
+      <c r="D104">
+        <v>978</v>
+      </c>
+      <c r="E104">
+        <v>942</v>
+      </c>
+      <c r="F104">
+        <v>958.25</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>959.41666666666663</v>
+      </c>
+      <c r="H104">
+        <v>956.718466092977</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>940.54895158032423</v>
+      </c>
+      <c r="K104">
+        <v>891.1056605202715</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>72.666574795036311</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>16.25</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>36</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>889.32746689702492</v>
+      </c>
+      <c r="W104">
+        <v>814.53288023704965</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>74.794586659975266</v>
+      </c>
+      <c r="Y104">
+        <v>57.619315160519832</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>900</v>
+      </c>
+      <c r="D105">
+        <v>923.9</v>
+      </c>
+      <c r="E105">
+        <v>837.8</v>
+      </c>
+      <c r="F105">
+        <v>860.6</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>874.09999999999991</v>
+      </c>
+      <c r="H105">
+        <v>915.40923304648845</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>936.84918456247442</v>
+      </c>
+      <c r="K105">
+        <v>879.25995818243337</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>36.661238587415276</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>22.800000000000068</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>86.100000000000023</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.26480836236933869</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>884.90785660517497</v>
+      </c>
+      <c r="W105">
+        <v>817.94525947874968</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>66.962597126425294</v>
+      </c>
+      <c r="Y105">
+        <v>59.487971553700923</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>862</v>
+      </c>
+      <c r="D106">
+        <v>890</v>
+      </c>
+      <c r="E106">
+        <v>832</v>
+      </c>
+      <c r="F106">
+        <v>848</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>856.66666666666663</v>
+      </c>
+      <c r="H106">
+        <v>886.0379498565776</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>926.43825465970235</v>
+      </c>
+      <c r="K106">
+        <v>868.75774525300369</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>33.948192638292191</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>58</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>879.22972481976342</v>
+      </c>
+      <c r="W106">
+        <v>820.1715365543979</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>59.058188265365516</v>
+      </c>
+      <c r="Y106">
+        <v>59.40201489603384</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>864</v>
+      </c>
+      <c r="D107">
+        <v>871.25</v>
+      </c>
+      <c r="E107">
+        <v>846.55</v>
+      </c>
+      <c r="F107">
+        <v>862.65</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>860.15</v>
+      </c>
+      <c r="H107">
+        <v>873.09397492828884</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>914.17419806865735</v>
+      </c>
+      <c r="K107">
+        <v>863.82269075233614</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>40.362456944673831</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>16.100000000000023</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>24.700000000000045</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.65182186234817785</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>876.67899792441517</v>
+      </c>
+      <c r="W107">
+        <v>823.31808940222027</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>53.360908522194904</v>
+      </c>
+      <c r="Y107">
+        <v>58.193793621266053</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
